--- a/data_year/zb/农业/农村水电建设和发电量.xlsx
+++ b/data_year/zb/农业/农村水电建设和发电量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,526 +468,295 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27487791</v>
+        <v>59240190.6</v>
       </c>
       <c r="C2" t="n">
-        <v>8755014</v>
+        <v>20444256.42</v>
       </c>
       <c r="D2" t="n">
-        <v>7459500</v>
+        <v>13700560</v>
       </c>
       <c r="E2" t="n">
-        <v>2384000</v>
+        <v>2425973</v>
       </c>
       <c r="F2" t="n">
-        <v>2060127</v>
+        <v>3793551</v>
       </c>
       <c r="G2" t="n">
-        <v>2220993</v>
+        <v>4398452.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28787476</v>
+        <v>62123430</v>
       </c>
       <c r="C3" t="n">
-        <v>9490187</v>
+        <v>17566867</v>
       </c>
       <c r="D3" t="n">
-        <v>3547500</v>
+        <v>10309266</v>
       </c>
       <c r="E3" t="n">
-        <v>1462800</v>
+        <v>1585709</v>
       </c>
       <c r="F3" t="n">
-        <v>1714454</v>
+        <v>3277465</v>
       </c>
       <c r="G3" t="n">
-        <v>2133741</v>
+        <v>4243988</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31044576</v>
+        <v>65686071</v>
       </c>
       <c r="C4" t="n">
-        <v>10366868</v>
+        <v>21729246</v>
       </c>
       <c r="D4" t="n">
-        <v>5680800</v>
+        <v>9947388</v>
       </c>
       <c r="E4" t="n">
-        <v>1419000</v>
+        <v>1658258</v>
       </c>
       <c r="F4" t="n">
-        <v>1883648</v>
+        <v>3399616</v>
       </c>
       <c r="G4" t="n">
-        <v>2393195</v>
+        <v>3671548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34157792</v>
+        <v>71186268</v>
       </c>
       <c r="C5" t="n">
-        <v>10966512</v>
+        <v>22327712</v>
       </c>
       <c r="D5" t="n">
-        <v>10850143</v>
+        <v>9477045</v>
       </c>
       <c r="E5" t="n">
-        <v>6385500</v>
+        <v>1357859</v>
       </c>
       <c r="F5" t="n">
-        <v>2702834</v>
+        <v>2460601</v>
       </c>
       <c r="G5" t="n">
-        <v>3006249</v>
+        <v>3457046.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38655048</v>
+        <v>73221047</v>
       </c>
       <c r="C6" t="n">
-        <v>11045527</v>
+        <v>22814928.89</v>
       </c>
       <c r="D6" t="n">
-        <v>16652425</v>
+        <v>9666971</v>
       </c>
       <c r="E6" t="n">
-        <v>5362090</v>
+        <v>939855</v>
       </c>
       <c r="F6" t="n">
-        <v>4363322</v>
+        <v>2553873</v>
       </c>
       <c r="G6" t="n">
-        <v>3762995</v>
+        <v>3171305.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43090145</v>
+        <v>75829591</v>
       </c>
       <c r="C7" t="n">
-        <v>13571702</v>
+        <v>23512814</v>
       </c>
       <c r="D7" t="n">
-        <v>17727677</v>
+        <v>8038846</v>
       </c>
       <c r="E7" t="n">
-        <v>4284511</v>
+        <v>929005</v>
       </c>
       <c r="F7" t="n">
-        <v>4964672</v>
+        <v>2412664</v>
       </c>
       <c r="G7" t="n">
-        <v>4343826</v>
+        <v>3082737</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47196651</v>
+        <v>77910629</v>
       </c>
       <c r="C8" t="n">
-        <v>14835889</v>
+        <v>26821937</v>
       </c>
       <c r="D8" t="n">
-        <v>20653424</v>
+        <v>7436391</v>
       </c>
       <c r="E8" t="n">
-        <v>4501575</v>
+        <v>931158</v>
       </c>
       <c r="F8" t="n">
-        <v>6403520</v>
+        <v>2032270</v>
       </c>
       <c r="G8" t="n">
-        <v>4604296</v>
+        <v>2493935</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53855597</v>
+        <v>79269995</v>
       </c>
       <c r="C9" t="n">
-        <v>16346041</v>
+        <v>24772495</v>
       </c>
       <c r="D9" t="n">
-        <v>20944545</v>
+        <v>6628296</v>
       </c>
       <c r="E9" t="n">
-        <v>4498420</v>
+        <v>669630</v>
       </c>
       <c r="F9" t="n">
-        <v>6578193</v>
+        <v>1353020</v>
       </c>
       <c r="G9" t="n">
-        <v>5117926</v>
+        <v>1999937</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51274371</v>
+        <v>80435263</v>
       </c>
       <c r="C10" t="n">
-        <v>16275902</v>
+        <v>23456082.71</v>
       </c>
       <c r="D10" t="n">
-        <v>21239258</v>
+        <v>6013805</v>
       </c>
       <c r="E10" t="n">
-        <v>3787365</v>
+        <v>524270</v>
       </c>
       <c r="F10" t="n">
-        <v>4194106</v>
+        <v>1643058</v>
       </c>
       <c r="G10" t="n">
-        <v>4568884</v>
+        <v>1000906.51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55121211</v>
+        <v>81441588</v>
       </c>
       <c r="C11" t="n">
-        <v>15672471</v>
+        <v>25331502</v>
       </c>
       <c r="D11" t="n">
-        <v>12890100</v>
+        <v>5199095</v>
       </c>
       <c r="E11" t="n">
-        <v>2194445</v>
+        <v>289190</v>
       </c>
       <c r="F11" t="n">
-        <v>3807072</v>
+        <v>1071975</v>
       </c>
       <c r="G11" t="n">
-        <v>4563240</v>
+        <v>709753</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59240190.6</v>
+        <v>81338282</v>
       </c>
       <c r="C12" t="n">
-        <v>20444256.42</v>
+        <v>24236893</v>
       </c>
       <c r="D12" t="n">
-        <v>13700560</v>
+        <v>3481550</v>
       </c>
       <c r="E12" t="n">
-        <v>2425973</v>
+        <v>182800</v>
       </c>
       <c r="F12" t="n">
-        <v>3793551</v>
+        <v>804662</v>
       </c>
       <c r="G12" t="n">
-        <v>4398452.91</v>
+        <v>585684</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>62123430</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17566867</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>10309266</v>
+        <v>3268635</v>
       </c>
       <c r="E13" t="n">
-        <v>1585709</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3277465</v>
-      </c>
+        <v>40385</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>4243988</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>65686071</v>
-      </c>
-      <c r="C14" t="n">
-        <v>21729246</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9947388</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1658258</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3399616</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3671548</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>71186268</v>
-      </c>
-      <c r="C15" t="n">
-        <v>22327712</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9477045</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1357859</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2460601</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3457046.81</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>73221047</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22814928.89</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9666971</v>
-      </c>
-      <c r="E16" t="n">
-        <v>939855</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2553873</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3171305.84</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>75829591</v>
-      </c>
-      <c r="C17" t="n">
-        <v>23512814</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8038846</v>
-      </c>
-      <c r="E17" t="n">
-        <v>929005</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2412664</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3082737</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>77910629</v>
-      </c>
-      <c r="C18" t="n">
-        <v>26821937</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7436391</v>
-      </c>
-      <c r="E18" t="n">
-        <v>931158</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2032270</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2493935</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>79269995</v>
-      </c>
-      <c r="C19" t="n">
-        <v>24772495</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6628296</v>
-      </c>
-      <c r="E19" t="n">
-        <v>669630</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1353020</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1999937</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>80435263</v>
-      </c>
-      <c r="C20" t="n">
-        <v>23456082.71</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6013805</v>
-      </c>
-      <c r="E20" t="n">
-        <v>524270</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1643058</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1000906.51</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>81441588</v>
-      </c>
-      <c r="C21" t="n">
-        <v>25331502</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5199095</v>
-      </c>
-      <c r="E21" t="n">
-        <v>289190</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1071975</v>
-      </c>
-      <c r="G21" t="n">
-        <v>709753</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>81338282</v>
-      </c>
-      <c r="C22" t="n">
-        <v>24236893</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3481550</v>
-      </c>
-      <c r="E22" t="n">
-        <v>182800</v>
-      </c>
-      <c r="F22" t="n">
-        <v>804662</v>
-      </c>
-      <c r="G22" t="n">
-        <v>585684</v>
+        <v>489019.62</v>
       </c>
     </row>
   </sheetData>
